--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"国红","id_card_no":"130731199208196042"}</t>
+          <t>{"name":"鞠敏","id_card_no":"35040119300529379X"}</t>
         </is>
       </c>
     </row>
@@ -559,10 +559,9 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_per_bus_legal.basic_id;
+          <t>info_per_bus_legal.basic_id;
 info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-004';
-info_per_bus_legal.ent_status[0]='在营（开业）'
-</t>
+info_per_bus_legal.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -617,7 +616,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"弓桂花","id_card_no":"141031193910077155"}</t>
+          <t>{"name":"殷岩","id_card_no":"441422195106035830"}</t>
         </is>
       </c>
     </row>
@@ -648,10 +647,9 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_per_bus_legal.basic_id;
+          <t>info_per_bus_legal.basic_id;
 info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-007';                 
-info_per_bus_legal.ent_status[0]='在营（开业）'
-</t>
+info_per_bus_legal.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -705,7 +703,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"于杰","id_card_no":"150205194102196221"}</t>
+          <t>{"name":"乌成","id_card_no":"150523196207041208"}</t>
         </is>
       </c>
     </row>
@@ -736,10 +734,9 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_per_bus_legal.basic_id;
+          <t>info_per_bus_legal.basic_id;
 info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-010';                 
-info_per_bus_legal.ent_status[0]='在营（开业）'
-</t>
+info_per_bus_legal.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -788,7 +785,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"宓博","id_card_no":"450203197011013583"}</t>
+          <t>{"name":"谷洁","id_card_no":"511800199106297435"}</t>
         </is>
       </c>
     </row>
@@ -819,9 +816,8 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-001';                 info_per_bus_legal.ent_status[0]='在营（开业）'
-</t>
+          <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-001';                 info_per_bus_legal.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -869,7 +865,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"唐倩","id_card_no":"54242919610329542X"}</t>
+          <t>{"name":"汲秀华","id_card_no":"152923196311071304"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"鞠敏","id_card_no":"35040119300529379X"}</t>
+          <t>{"name":"任莹","id_card_no":"431124197309309831"}</t>
         </is>
       </c>
     </row>
@@ -559,9 +559,10 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>info_per_bus_legal.basic_id;
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-004';
-info_per_bus_legal.ent_status[0]='在营（开业）'</t>
+info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"殷岩","id_card_no":"441422195106035830"}</t>
+          <t>{"name":"劳勇","id_card_no":"511322193403226012"}</t>
         </is>
       </c>
     </row>
@@ -647,9 +648,10 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>info_per_bus_legal.basic_id;
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-007';                 
-info_per_bus_legal.ent_status[0]='在营（开业）'</t>
+info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -703,7 +705,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"乌成","id_card_no":"150523196207041208"}</t>
+          <t>{"name":"冉明","id_card_no":"340503196701124594"}</t>
         </is>
       </c>
     </row>
@@ -734,9 +736,10 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>info_per_bus_legal.basic_id;
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-010';                 
-info_per_bus_legal.ent_status[0]='在营（开业）'</t>
+info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -785,7 +788,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"谷洁","id_card_no":"511800199106297435"}</t>
+          <t>{"name":"衡小红","id_card_no":"530400197203206285"}</t>
         </is>
       </c>
     </row>
@@ -816,16 +819,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>info_per_bus_legal.basic_id;
-info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-001';                 info_per_bus_legal.ent_status[0]='在营（开业）'</t>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-013';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-002';
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-014';
 info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-003';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-015';
 info_per_bus_shareholder.funded_ratio[1]='0.9';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
@@ -833,8 +837,8 @@
       <c r="I6" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-001';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-003'</t>
+info_court.unique_name[0]='上海蓝胖子有限公司f001-013';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-015'</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -865,7 +869,938 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"汲秀华","id_card_no":"152923196311071304"}</t>
+          <t>{"name":"庄秀芳","id_card_no":"530629197103147728"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>relent_court_open_tax_arrears</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-016';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-017';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-018';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-016';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-018'</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>info_court_tax_arrears.court_id; info_court_tax_arrears.taxes[0-0]='200'; info_court_tax_arrears.taxes[0-1]='500';</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>relent_court_open_tax_arrears=2</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>{"name":"微欣","id_card_no":"621124197910237440"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>relent_court_open_court_dishonesty</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-019';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-020';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-021';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-019';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-021'</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_deadbeat.court_id; info_court_deadbeat.execute_date[0-0]='2017-07-04'                    </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>relent_court_open_court_dishonesty=1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>{"name":"柏飞","id_card_no":"130636199902269340"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>relent_court_open_rest_entry</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-022';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-023';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-024';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-022';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-024'</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_limited_entry_exit.court_id; info_court_limited_entry_exit.specific_date[1-0]='2018-07-04'                </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>relent_court_open_rest_entry=1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>{"name":"阳柳","id_card_no":"150785194807176676"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>relent_court_open_high_cons</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-025';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-026';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-027';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-025';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-027'</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_limit_hignspending.court_id; info_court_limit_hignspending.specific_date[1-0]='2016-08-01'                </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>relent_court_open_high_cons=1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>{"name":"门欢","id_card_no":"610327200009158709"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>relent_court_open_pub_info</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-028';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-029';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-030';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-028';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-030'</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_excute_public.court_id; info_court_excute_public.filing_time[1-0]='2016-08-01'                </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>relent_court_open_pub_info=1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>{"name":"仰春梅","id_card_no":"542624193512079141"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>relent_court_open_cri_sus</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-031';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-032';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-033';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-031';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-033'</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_criminal_suspect.court_id; info_court_criminal_suspect.trial_date[1-0]='2016-08-01';                info_court_criminal_suspect.trial_date[1-1]='2017-08-01' </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>relent_court_open_cri_sus=2</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>{"name":"卞欢","id_card_no":"150981196507198149"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>relent_court_open_fin_loan_con</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-034';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-035';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-036';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-034';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-036'</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='**金融借款合同纠纷**';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>relent_court_open_fin_loan_con=1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>{"name":"西洋","id_card_no":"520329194104162848"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>relent_court_open_pop_loan</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-037';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-038';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-039';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-037';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-039'</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.case_reason[1-0]='**民间借贷纠纷**';                info_court_trial_process.legal_status[1-0]='**被告**' </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>relent_court_open_pop_loan=1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>{"name":"牛平","id_card_no":"341501197802098068"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>relent_court_open_docu_status</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-040';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-041';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-042';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-040';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-042'</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.legal_status[0-0]='**原告**';                 info_court_judicative_pape.legal_status[0-1]='**被告**';   info_court_judicative_pape.legal_status[1-0]='**原告**';                 info_court_judicative_pape.legal_status[1-1]='**被告**' </t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>relent_court_open_docu_status=2</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>{"name":"穆兰英","id_card_no":"371400194306264805"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>relent_court_open_proc_status</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-043';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-044';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-045';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-043';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-045'</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.legal_status[0-0]='**原告**';                 info_court_trial_process.legal_status[0-1]='**被告**';                  info_court_trial_process.legal_status[1-0]='**原告**';                 info_court_trial_process.legal_status[1-1]='**被告**' </t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>relent_court_open_proc_status=2</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>{"name":"山斌","id_card_no":"320118198805074366"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>relent_court_open_loan_con</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-046';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-047';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-048';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-046';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-048'</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='**借款合同纠纷**';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>relent_court_open_loan_con=1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>{"name":"束红梅","id_card_no":"451227199408222640"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"任莹","id_card_no":"431124197309309831"}</t>
+          <t>{"name":"王英","id_card_no":"510801193809175424"}</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"劳勇","id_card_no":"511322193403226012"}</t>
+          <t>{"name":"程慧","id_card_no":"140221196905239210"}</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"冉明","id_card_no":"340503196701124594"}</t>
+          <t>{"name":"贾玉","id_card_no":"532525193104223932"}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"衡小红","id_card_no":"530400197203206285"}</t>
+          <t>{"name":"关岩","id_card_no":"130981199804087381"}</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"庄秀芳","id_card_no":"530629197103147728"}</t>
+          <t>{"name":"弘健","id_card_no":"65420119551005117X"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"微欣","id_card_no":"621124197910237440"}</t>
+          <t>{"name":"俟建","id_card_no":"533100194210071481"}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"柏飞","id_card_no":"130636199902269340"}</t>
+          <t>{"name":"姚霞","id_card_no":"13080219371203847X"}</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"阳柳","id_card_no":"150785194807176676"}</t>
+          <t>{"name":"法海燕","id_card_no":"130528199010167220"}</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"门欢","id_card_no":"610327200009158709"}</t>
+          <t>{"name":"羿兵","id_card_no":"450602195903233393"}</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"仰春梅","id_card_no":"542624193512079141"}</t>
+          <t>{"name":"厍峰","id_card_no":"511124195407043185"}</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"卞欢","id_card_no":"150981196507198149"}</t>
+          <t>{"name":"栾颖","id_card_no":"421024194407141007"}</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"西洋","id_card_no":"520329194104162848"}</t>
+          <t>{"name":"李玉兰","id_card_no":"611026198703169983"}</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"牛平","id_card_no":"341501197802098068"}</t>
+          <t>{"name":"左丽华","id_card_no":"652824193602222091"}</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,9 @@
           <t>ent_name</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>false</t>
@@ -1632,7 +1634,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"穆兰英","id_card_no":"371400194306264805"}</t>
+          <t>{"name":"万金凤","id_card_no":"340203192909155555"}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1709,9 @@
           <t>ent_name</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>false</t>
@@ -1715,7 +1719,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"山斌","id_card_no":"320118198805074366"}</t>
+          <t>{"name":"公璐","id_card_no":"370000198110110957"}</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1804,177 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"束红梅","id_card_no":"451227199408222640"}</t>
+          <t>{"name":"游浩","id_card_no":"320322194701218457"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>relent_court_open_fin_loan_con</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-049';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-050';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-051';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-049';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-051'</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[0-0]='**金融借款合同纠纷**';                info_court_judicative_pape.legal_status[0-0]='**原告**' </t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>relent_court_open_fin_loan_con=0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>{"name":"钮荣","id_card_no":"21050019950321237X"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>f0001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>relent_court_open_proc_status</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-052';                 info_per_bus_legal.ent_status[0]='在营（开业）'
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-053';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-054';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f001-052';
+info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-054'</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.legal_status[0-0]='**原告**';                 info_court_trial_process.legal_status[0-1]='**上诉人**';                  info_court_trial_process.legal_status[1-0]='**原告**';                 info_court_trial_process.legal_status[1-1]='**上诉人**' </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>relent_court_open_proc_status=3</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>{"name":"邹秀珍","id_card_no":"530923197406265738"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -477,13 +477,16 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-001';
-info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.sub_conam[0]='3';
+info_per_bus_shareholder.reg_cap[0]='10';
 info_per_bus_shareholder.ent_status[0]='在营（开业）';
 info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-002';
-info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.sub_conam[1]='7';
+info_per_bus_shareholder.reg_cap[1]='10';;
 info_per_bus_shareholder.ent_status[1]='注销'; 
 info_per_bus_shareholder.ent_name[2]='上海蓝胖子有限公司f001-003';
-info_per_bus_shareholder.funded_ratio[2]='0.9';
+info_per_bus_shareholder.sub_conam[2]='9';
+info_per_bus_shareholder.reg_cap[2]='10';
 info_per_bus_shareholder.ent_status[2]='在营（开业）'</t>
         </is>
       </c>
@@ -515,20 +518,20 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"王英","id_card_no":"510801193809175424"}</t>
+          <t>{"name":"牛兵","id_card_no":"210903198304308260"}</t>
         </is>
       </c>
     </row>
@@ -569,10 +572,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-005';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
 info_per_bus_shareholder.ent_status[0]='注销'; 
 info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-006';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -580,7 +585,7 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-004';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-006'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-006'</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -604,20 +609,20 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"程慧","id_card_no":"140221196905239210"}</t>
+          <t>{"name":"支桂兰","id_card_no":"513337193702033380"}</t>
         </is>
       </c>
     </row>
@@ -658,10 +663,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-008';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
 info_per_bus_shareholder.ent_status[0]='注销'; 
 info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-009';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -692,20 +699,20 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"贾玉","id_card_no":"532525193104223932"}</t>
+          <t>{"name":"颛桂香","id_card_no":"320203193401268015"}</t>
         </is>
       </c>
     </row>
@@ -746,10 +753,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-011';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
 info_per_bus_shareholder.ent_status[0]='注销'; 
 info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-012';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -775,7 +784,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -788,7 +797,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"关岩","id_card_no":"130981199804087381"}</t>
+          <t>{"name":"简欣","id_card_no":"65020519760723212X"}</t>
         </is>
       </c>
     </row>
@@ -828,9 +837,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-014';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-015';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-015';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -856,7 +868,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -869,7 +881,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"弘健","id_card_no":"65420119551005117X"}</t>
+          <t>{"name":"劳桂芝","id_card_no":"350429195902027649"}</t>
         </is>
       </c>
     </row>
@@ -909,9 +921,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-017';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-018';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-018';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -941,20 +956,20 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"俟建","id_card_no":"533100194210071481"}</t>
+          <t>{"name":"阳静","id_card_no":"421100196301202602"}</t>
         </is>
       </c>
     </row>
@@ -994,9 +1009,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-020';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-021';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-021';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1026,20 +1044,20 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"姚霞","id_card_no":"13080219371203847X"}</t>
+          <t>{"name":"刁辉","id_card_no":"610828193209285615"}</t>
         </is>
       </c>
     </row>
@@ -1079,9 +1097,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-023';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-024';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-024';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1089,7 +1110,7 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-022';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-024'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-024'</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1111,20 +1132,20 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"法海燕","id_card_no":"130528199010167220"}</t>
+          <t>{"name":"官雷","id_card_no":"371401198507080417"}</t>
         </is>
       </c>
     </row>
@@ -1164,9 +1185,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-026';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-027';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-027';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1174,7 +1198,7 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-025';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-027'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-027'</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1196,20 +1220,20 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"羿兵","id_card_no":"450602195903233393"}</t>
+          <t>{"name":"翁丹丹","id_card_no":"360400197909124239"}</t>
         </is>
       </c>
     </row>
@@ -1249,9 +1273,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-029';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-030';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-030';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1259,7 +1286,7 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-028';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-030'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-030'</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1281,20 +1308,20 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"厍峰","id_card_no":"511124195407043185"}</t>
+          <t>{"name":"富鹏","id_card_no":"510124194705136579"}</t>
         </is>
       </c>
     </row>
@@ -1334,9 +1361,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-032';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-033';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-033';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1344,7 +1374,7 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-031';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-033'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-033'</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1366,20 +1396,20 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"栾颖","id_card_no":"421024194407141007"}</t>
+          <t>{"name":"宗鹏","id_card_no":"431003197807315946"}</t>
         </is>
       </c>
     </row>
@@ -1419,9 +1449,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-035';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-036';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-036';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1429,12 +1462,12 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-034';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-036'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-036'</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='**金融借款合同纠纷**';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
+          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='金融借款合同纠纷';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1451,20 +1484,20 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"李玉兰","id_card_no":"611026198703169983"}</t>
+          <t>{"name":"侯建","id_card_no":"130632195706244628"}</t>
         </is>
       </c>
     </row>
@@ -1504,9 +1537,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-038';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-039';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-039';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1514,12 +1550,12 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-037';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-039'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-039'</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.case_reason[1-0]='**民间借贷纠纷**';                info_court_trial_process.legal_status[1-0]='**被告**' </t>
+          <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.case_reason[1-0]='民间借贷纠纷';                info_court_trial_process.legal_status[1-0]='**被告**' </t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1536,20 +1572,20 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"左丽华","id_card_no":"652824193602222091"}</t>
+          <t>{"name":"赖敏","id_card_no":"370400197210197591"}</t>
         </is>
       </c>
     </row>
@@ -1589,9 +1625,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-041';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-042';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-042';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1621,20 +1660,20 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"万金凤","id_card_no":"340203192909155555"}</t>
+          <t>{"name":"舌鹏","id_card_no":"532301197210201020"}</t>
         </is>
       </c>
     </row>
@@ -1674,9 +1713,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-044';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-045';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-045';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1684,7 +1726,7 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-043';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-045'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-045'</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1706,7 +1748,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1719,7 +1761,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"公璐","id_card_no":"370000198110110957"}</t>
+          <t>{"name":"阳明","id_card_no":"210112194601049124"}</t>
         </is>
       </c>
     </row>
@@ -1759,9 +1801,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-047';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-048';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-048';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1769,12 +1814,12 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-046';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-048'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-048'</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='**借款合同纠纷**';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
+          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='借款合同纠纷';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1791,20 +1836,20 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"游浩","id_card_no":"320322194701218457"}</t>
+          <t>{"name":"简宇","id_card_no":"360982195608050363"}</t>
         </is>
       </c>
     </row>
@@ -1844,9 +1889,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-050';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-051';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-051';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1859,7 +1907,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[0-0]='**金融借款合同纠纷**';                info_court_judicative_pape.legal_status[0-0]='**原告**' </t>
+          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[0-0]='金融借款合同纠纷';                info_court_judicative_pape.legal_status[0-0]='**原告**' </t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1876,7 +1924,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1889,7 +1937,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"钮荣","id_card_no":"21050019950321237X"}</t>
+          <t>{"name":"段琴","id_card_no":"610202193412139801"}</t>
         </is>
       </c>
     </row>
@@ -1929,9 +1977,12 @@
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-053';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-054';
-info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.sub_conam[0]='7';
+info_per_bus_shareholder.reg_cap[0]='10';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-054';
+info_per_bus_shareholder.sub_conam[1]='9';
+info_per_bus_shareholder.reg_cap[1]='10';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
       </c>
@@ -1939,7 +1990,7 @@
         <is>
           <t>info_court.id;
 info_court.unique_name[0]='上海蓝胖子有限公司f001-052';
-info_court.unique_name[1]='上海蓝胖子有限公司江苏分公司f001-054'</t>
+info_court.unique_name[1]='上海蓝胖子有限公司f001-054'</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1961,7 +2012,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ent_name</t>
+          <t>unique_name</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1974,7 +2025,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"邹秀珍","id_card_no":"530923197406265738"}</t>
+          <t>{"name":"官鑫","id_card_no":"220822195904284911"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"牛兵","id_card_no":"210903198304308260"}</t>
+          <t>{"name":"微桂兰","id_card_no":"441700196001055635"}</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"支桂兰","id_card_no":"513337193702033380"}</t>
+          <t>{"name":"禹玉兰","id_card_no":"430981198111161899"}</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"颛桂香","id_card_no":"320203193401268015"}</t>
+          <t>{"name":"薛玉华","id_card_no":"532324196103154927"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"简欣","id_card_no":"65020519760723212X"}</t>
+          <t>{"name":"广娜","id_card_no":"542621194504087315"}</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"劳桂芝","id_card_no":"350429195902027649"}</t>
+          <t>{"name":"居颖","id_card_no":"630102195208267459"}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"阳静","id_card_no":"421100196301202602"}</t>
+          <t>{"name":"公琴","id_card_no":"230603198401058168"}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"刁辉","id_card_no":"610828193209285615"}</t>
+          <t>{"name":"咎丽丽","id_card_no":"370681198507055600"}</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"官雷","id_card_no":"371401198507080417"}</t>
+          <t>{"name":"扶明","id_card_no":"510900193108183682"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"翁丹丹","id_card_no":"360400197909124239"}</t>
+          <t>{"name":"熊楠","id_card_no":"320507198009233883"}</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"富鹏","id_card_no":"510124194705136579"}</t>
+          <t>{"name":"贡晶","id_card_no":"341502198505137228"}</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"宗鹏","id_card_no":"431003197807315946"}</t>
+          <t>{"name":"夹小红","id_card_no":"611000198810066273"}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"侯建","id_card_no":"130632195706244628"}</t>
+          <t>{"name":"门岩","id_card_no":"632823193910129809"}</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"赖敏","id_card_no":"370400197210197591"}</t>
+          <t>{"name":"寇玉","id_card_no":"350527194712166523"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"舌鹏","id_card_no":"532301197210201020"}</t>
+          <t>{"name":"羊涛","id_card_no":"610521197009051440"}</t>
         </is>
       </c>
     </row>
@@ -1752,16 +1752,16 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"阳明","id_card_no":"210112194601049124"}</t>
+          <t>{"name":"方坤","id_card_no":"530822197204182246"}</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"简宇","id_card_no":"360982195608050363"}</t>
+          <t>{"name":"公瑜","id_card_no":"620623193407302788"}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"段琴","id_card_no":"610202193412139801"}</t>
+          <t>{"name":"拓玉梅","id_card_no":"520527196506245811"}</t>
         </is>
       </c>
     </row>
@@ -2016,16 +2016,16 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"官鑫","id_card_no":"220822195904284911"}</t>
+          <t>{"name":"石阳","id_card_no":"350322196503223401"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"微桂兰","id_card_no":"441700196001055635"}</t>
+          <t>{"name":"巩洁","id_card_no":"140701193511220136"}</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"禹玉兰","id_card_no":"430981198111161899"}</t>
+          <t>{"name":"段波","id_card_no":"130632199310261761"}</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"薛玉华","id_card_no":"532324196103154927"}</t>
+          <t>{"name":"羊建","id_card_no":"440115193410058850"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"广娜","id_card_no":"542621194504087315"}</t>
+          <t>{"name":"山超","id_card_no":"321300197103258519"}</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"居颖","id_card_no":"630102195208267459"}</t>
+          <t>{"name":"桑丽华","id_card_no":"530427199101272512"}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"公琴","id_card_no":"230603198401058168"}</t>
+          <t>{"name":"姬桂花","id_card_no":"150625194701209060"}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"咎丽丽","id_card_no":"370681198507055600"}</t>
+          <t>{"name":"云艳","id_card_no":"220821193403092414"}</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"扶明","id_card_no":"510900193108183682"}</t>
+          <t>{"name":"欧建","id_card_no":"211204197305240530"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"熊楠","id_card_no":"320507198009233883"}</t>
+          <t>{"name":"燕秀云","id_card_no":"130501198010222029"}</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"贡晶","id_card_no":"341502198505137228"}</t>
+          <t>{"name":"倪雪梅","id_card_no":"431022198502048238"}</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"夹小红","id_card_no":"611000198810066273"}</t>
+          <t>{"name":"关桂英","id_card_no":"360781197402251698"}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"门岩","id_card_no":"632823193910129809"}</t>
+          <t>{"name":"帅波","id_card_no":"411523193605221213"}</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"寇玉","id_card_no":"350527194712166523"}</t>
+          <t>{"name":"段娜","id_card_no":"340323199605111118"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"羊涛","id_card_no":"610521197009051440"}</t>
+          <t>{"name":"阮龙","id_card_no":"210881199901178597"}</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"方坤","id_card_no":"530822197204182246"}</t>
+          <t>{"name":"魏颖","id_card_no":"530424198108245943"}</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"公瑜","id_card_no":"620623193407302788"}</t>
+          <t>{"name":"左帆","id_card_no":"61092619570209753X"}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"拓玉梅","id_card_no":"520527196506245811"}</t>
+          <t>{"name":"苗俊","id_card_no":"371601197207171241"}</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"石阳","id_card_no":"350322196503223401"}</t>
+          <t>{"name":"谯丽丽","id_card_no":"211101196711277858"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"巩洁","id_card_no":"140701193511220136"}</t>
+          <t>{"name":"公芳","id_card_no":"130635198209297000"}</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"段波","id_card_no":"130632199310261761"}</t>
+          <t>{"name":"郭倩","id_card_no":"150523199409241420"}</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"羊建","id_card_no":"440115193410058850"}</t>
+          <t>{"name":"阴瑜","id_card_no":"141123198406093277"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"山超","id_card_no":"321300197103258519"}</t>
+          <t>{"name":"宗桂花","id_card_no":"130681193402186228"}</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"桑丽华","id_card_no":"530427199101272512"}</t>
+          <t>{"name":"厉畅","id_card_no":"32118219390725229X"}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"姬桂花","id_card_no":"150625194701209060"}</t>
+          <t>{"name":"储强","id_card_no":"542222199609201986"}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"云艳","id_card_no":"220821193403092414"}</t>
+          <t>{"name":"冯秀珍","id_card_no":"610901196310126255"}</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"欧建","id_card_no":"211204197305240530"}</t>
+          <t>{"name":"端宁","id_card_no":"37092119490914515X"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"燕秀云","id_card_no":"130501198010222029"}</t>
+          <t>{"name":"别洋","id_card_no":"510824193108273624"}</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"倪雪梅","id_card_no":"431022198502048238"}</t>
+          <t>{"name":"季秀荣","id_card_no":"230207195607015390"}</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"关桂英","id_card_no":"360781197402251698"}</t>
+          <t>{"name":"姬梅","id_card_no":"330922195808090659"}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"帅波","id_card_no":"411523193605221213"}</t>
+          <t>{"name":"魏淑珍","id_card_no":"130281193209075719"}</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"段娜","id_card_no":"340323199605111118"}</t>
+          <t>{"name":"佴阳","id_card_no":"510903196009014026"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"阮龙","id_card_no":"210881199901178597"}</t>
+          <t>{"name":"房婷","id_card_no":"370784198006266113"}</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"魏颖","id_card_no":"530424198108245943"}</t>
+          <t>{"name":"桑秀梅","id_card_no":"15042919440722183X"}</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"左帆","id_card_no":"61092619570209753X"}</t>
+          <t>{"name":"官伟","id_card_no":"450101199911266552"}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"苗俊","id_card_no":"371601197207171241"}</t>
+          <t>{"name":"屠秀芳","id_card_no":"130205199601233372"}</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"谯丽丽","id_card_no":"211101196711277858"}</t>
+          <t>{"name":"毛超","id_card_no":"441427193806133223"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"胡颖","id_card_no":"610581195506227213"}</t>
+          <t>{"name":"余桂荣","id_card_no":"43122119300612431X"}</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"艾凯","id_card_no":"540200197603111585"}</t>
+          <t>{"name":"卞海燕","id_card_no":"520123193507196352"}</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"袁涛","id_card_no":"510403198303040489"}</t>
+          <t>{"name":"薛华","id_card_no":"131126196711236121"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"蓝莉","id_card_no":"622900198402182066"}</t>
+          <t>{"name":"司亮","id_card_no":"441500196510117979"}</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"东秀华","id_card_no":"320582199208231623"}</t>
+          <t>{"name":"倪玉梅","id_card_no":"430724194907254891"}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"墨秀荣","id_card_no":"411521196205178712"}</t>
+          <t>{"name":"全玉兰","id_card_no":"520525194411085139"}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"延瑞","id_card_no":"420114198310137159"}</t>
+          <t>{"name":"巫伟","id_card_no":"445381195710237701"}</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"辛宇","id_card_no":"451227199509276736"}</t>
+          <t>{"name":"于波","id_card_no":"110117198403074798"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"齐想","id_card_no":"350301195506059700"}</t>
+          <t>{"name":"辛敏","id_card_no":"43112619340321960X"}</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"邵雪梅","id_card_no":"431382197002055966"}</t>
+          <t>{"name":"莘俊","id_card_no":"310108199401178847"}</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"尉秀荣","id_card_no":"431122197509178757"}</t>
+          <t>{"name":"跋红梅","id_card_no":"620524197506269126"}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"闻娜","id_card_no":"150625196303054373"}</t>
+          <t>{"name":"全萍","id_card_no":"522323195407192452"}</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"濮红","id_card_no":"330322199704166159"}</t>
+          <t>{"name":"孙欣","id_card_no":"210904194411149638"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"荣琴","id_card_no":"420000195007288045"}</t>
+          <t>{"name":"齐杨","id_card_no":"500233195409017625"}</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"洪桂荣","id_card_no":"32000019760310747X"}</t>
+          <t>{"name":"晏涛","id_card_no":"441825197505242685"}</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"伯婷婷","id_card_no":"14102919360829240X"}</t>
+          <t>{"name":"颛建","id_card_no":"130128196107214761"}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"寿云","id_card_no":"210881197211101219"}</t>
+          <t>{"name":"跋小红","id_card_no":"210311193703141837"}</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"蒙艳","id_card_no":"420204197203172862"}</t>
+          <t>{"name":"皇燕","id_card_no":"450703195610114376"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"余桂荣","id_card_no":"43122119300612431X"}</t>
+          <t>{"name":"亓帅","id_card_no":"23060119631012755X"}</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"卞海燕","id_card_no":"520123193507196352"}</t>
+          <t>{"name":"乜杨","id_card_no":"140721195307068557"}</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"薛华","id_card_no":"131126196711236121"}</t>
+          <t>{"name":"葛敏","id_card_no":"140727200005264351"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"司亮","id_card_no":"441500196510117979"}</t>
+          <t>{"name":"佟秀芳","id_card_no":"451027193408259023"}</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"倪玉梅","id_card_no":"430724194907254891"}</t>
+          <t>{"name":"鄢龙","id_card_no":"522627199505144796"}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"全玉兰","id_card_no":"520525194411085139"}</t>
+          <t>{"name":"卜建军","id_card_no":"33070119670929405X"}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"巫伟","id_card_no":"445381195710237701"}</t>
+          <t>{"name":"米林","id_card_no":"341825197511090370"}</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"于波","id_card_no":"110117198403074798"}</t>
+          <t>{"name":"穆琴","id_card_no":"520111197003275826"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"辛敏","id_card_no":"43112619340321960X"}</t>
+          <t>{"name":"衡龙","id_card_no":"620702198010203139"}</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"莘俊","id_card_no":"310108199401178847"}</t>
+          <t>{"name":"徐凯","id_card_no":"15092819841024621X"}</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"跋红梅","id_card_no":"620524197506269126"}</t>
+          <t>{"name":"廉帅","id_card_no":"410305193505034600"}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"全萍","id_card_no":"522323195407192452"}</t>
+          <t>{"name":"尉桂香","id_card_no":"440608197604116950"}</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"孙欣","id_card_no":"210904194411149638"}</t>
+          <t>{"name":"车欣","id_card_no":"140823200107175982"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"齐杨","id_card_no":"500233195409017625"}</t>
+          <t>{"name":"裘娜","id_card_no":"131022197403266656"}</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"晏涛","id_card_no":"441825197505242685"}</t>
+          <t>{"name":"佴辉","id_card_no":"652100196806287852"}</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"颛建","id_card_no":"130128196107214761"}</t>
+          <t>{"name":"景红霞","id_card_no":"411681195412233742"}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"跋小红","id_card_no":"210311193703141837"}</t>
+          <t>{"name":"琴洋","id_card_no":"520330198405254395"}</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"皇燕","id_card_no":"450703195610114376"}</t>
+          <t>{"name":"元红","id_card_no":"360201193701106338"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"亓帅","id_card_no":"23060119631012755X"}</t>
+          <t>{"name":"关瑞","id_card_no":"520523199812048523"}</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"乜杨","id_card_no":"140721195307068557"}</t>
+          <t>{"name":"姬桂芳","id_card_no":"450312198212239753"}</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"葛敏","id_card_no":"140727200005264351"}</t>
+          <t>{"name":"成建华","id_card_no":"440703199104105772"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"佟秀芳","id_card_no":"451027193408259023"}</t>
+          <t>{"name":"逄鹏","id_card_no":"130927197710212041"}</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"鄢龙","id_card_no":"522627199505144796"}</t>
+          <t>{"name":"胡娜","id_card_no":"65322719730128581X"}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"卜建军","id_card_no":"33070119670929405X"}</t>
+          <t>{"name":"卓雪","id_card_no":"510726194906273516"}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"米林","id_card_no":"341825197511090370"}</t>
+          <t>{"name":"子俊","id_card_no":"220822199506302238"}</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"穆琴","id_card_no":"520111197003275826"}</t>
+          <t>{"name":"鲍秀兰","id_card_no":"522323196701245222"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"衡龙","id_card_no":"620702198010203139"}</t>
+          <t>{"name":"门桂芝","id_card_no":"110107196609247330"}</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"徐凯","id_card_no":"15092819841024621X"}</t>
+          <t>{"name":"艾想","id_card_no":"350926196308030514"}</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"廉帅","id_card_no":"410305193505034600"}</t>
+          <t>{"name":"叶阳","id_card_no":"350305193606024667"}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"尉桂香","id_card_no":"440608197604116950"}</t>
+          <t>{"name":"年红梅","id_card_no":"500231193502187547"}</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"车欣","id_card_no":"140823200107175982"}</t>
+          <t>{"name":"雕秀梅","id_card_no":"231024193306267989"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"裘娜","id_card_no":"131022197403266656"}</t>
+          <t>{"name":"孙文","id_card_no":"431201194112310457"}</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"佴辉","id_card_no":"652100196806287852"}</t>
+          <t>{"name":"巢平","id_card_no":"652122198605291617"}</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"景红霞","id_card_no":"411681195412233742"}</t>
+          <t>{"name":"葛丹丹","id_card_no":"211122197412171945"}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"琴洋","id_card_no":"520330198405254395"}</t>
+          <t>{"name":"鄢丹丹","id_card_no":"520502193402213793"}</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"元红","id_card_no":"360201193701106338"}</t>
+          <t>{"name":"公淑兰","id_card_no":"620522197008081937"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"关瑞","id_card_no":"520523199812048523"}</t>
+          <t>{"name":"嵇明","id_card_no":"31000019890823697X"}</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"姬桂芳","id_card_no":"450312198212239753"}</t>
+          <t>{"name":"符婷","id_card_no":"141000199010295619"}</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"成建华","id_card_no":"440703199104105772"}</t>
+          <t>{"name":"程峰","id_card_no":"410102197812161747"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"逄鹏","id_card_no":"130927197710212041"}</t>
+          <t>{"name":"应桂英","id_card_no":"430723199606168232"}</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"胡娜","id_card_no":"65322719730128581X"}</t>
+          <t>{"name":"和军","id_card_no":"150425193610198479"}</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"卓雪","id_card_no":"510726194906273516"}</t>
+          <t>{"name":"屠淑英","id_card_no":"51332119550401753X"}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"子俊","id_card_no":"220822199506302238"}</t>
+          <t>{"name":"鲍桂花","id_card_no":"540222197306058931"}</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"鲍秀兰","id_card_no":"522323196701245222"}</t>
+          <t>{"name":"胡欣","id_card_no":"330382195512013201"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"门桂芝","id_card_no":"110107196609247330"}</t>
+          <t>{"name":"弘梅","id_card_no":"533422198711163002"}</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"艾想","id_card_no":"350926196308030514"}</t>
+          <t>{"name":"寿秀云","id_card_no":"510722196610109892"}</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"叶阳","id_card_no":"350305193606024667"}</t>
+          <t>{"name":"权琴","id_card_no":"410928195603121931"}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"年红梅","id_card_no":"500231193502187547"}</t>
+          <t>{"name":"易杰","id_card_no":"430681195504222365"}</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"雕秀梅","id_card_no":"231024193306267989"}</t>
+          <t>{"name":"劳林","id_card_no":"371328197908081402"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"孙文","id_card_no":"431201194112310457"}</t>
+          <t>{"name":"法欣","id_card_no":"341722195001202850"}</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"巢平","id_card_no":"652122198605291617"}</t>
+          <t>{"name":"西宁","id_card_no":"411727199508080088"}</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"葛丹丹","id_card_no":"211122197412171945"}</t>
+          <t>{"name":"赫丽华","id_card_no":"441224199810132589"}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"鄢丹丹","id_card_no":"520502193402213793"}</t>
+          <t>{"name":"熊华","id_card_no":"51052419441111849X"}</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"公淑兰","id_card_no":"620522197008081937"}</t>
+          <t>{"name":"墨杰","id_card_no":"510723197612152860"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="260">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1003,7 +1003,7 @@
     <t xml:space="preserve">info_court_criminal_suspect.court_id; info_court_criminal_suspect.trial_date[1-0]='2016-08-01';                info_court_criminal_suspect.trial_date[1-1]='2017-08-01' </t>
   </si>
   <si>
-    <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='金融借款合同纠纷';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
+    <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='**金融借款合同纠纷**';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
   </si>
   <si>
     <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.case_reason[1-0]='民间借贷纠纷';                info_court_trial_process.legal_status[1-0]='**被告**' </t>
@@ -1158,127 +1158,130 @@
     <t>unique_name</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>{"name":"朱桂英","id_card_no":"211204194611217976"}</t>
-  </si>
-  <si>
-    <t>{"name":"赖秀英","id_card_no":"140223199412237600"}</t>
-  </si>
-  <si>
-    <t>{"name":"朱颖","id_card_no":"430503195110104011"}</t>
-  </si>
-  <si>
-    <t>{"name":"洪英","id_card_no":"210100200010167092"}</t>
-  </si>
-  <si>
-    <t>{"name":"张东","id_card_no":"36073419830120063X"}</t>
-  </si>
-  <si>
-    <t>{"name":"张秀兰","id_card_no":"360102197104019470"}</t>
-  </si>
-  <si>
-    <t>{"name":"王柳","id_card_no":"533323197809219488"}</t>
-  </si>
-  <si>
-    <t>{"name":"李凤兰","id_card_no":"230711196907247843"}</t>
-  </si>
-  <si>
-    <t>{"name":"甘伟","id_card_no":"360901198501266821"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄小红","id_card_no":"610802193903179464"}</t>
-  </si>
-  <si>
-    <t>{"name":"余金凤","id_card_no":"430124196103278894"}</t>
-  </si>
-  <si>
-    <t>{"name":"劳平","id_card_no":"431381198110099040"}</t>
-  </si>
-  <si>
-    <t>{"name":"吴莹","id_card_no":"421223198408140172"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘桂芝","id_card_no":"430202194304077405"}</t>
-  </si>
-  <si>
-    <t>{"name":"蔡涛","id_card_no":"370301193603231319"}</t>
-  </si>
-  <si>
-    <t>{"name":"沈强","id_card_no":"469023195309047343"}</t>
-  </si>
-  <si>
-    <t>{"name":"蔡淑英","id_card_no":"44090019590822317X"}</t>
-  </si>
-  <si>
-    <t>{"name":"董波","id_card_no":"431023195401246211"}</t>
-  </si>
-  <si>
-    <t>{"name":"张雷","id_card_no":"522726193901188477"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨雷","id_card_no":"610301199207132295"}</t>
-  </si>
-  <si>
-    <t>{"name":"马红梅","id_card_no":"150404199509243066"}</t>
-  </si>
-  <si>
-    <t>{"name":"蔡婷","id_card_no":"420601198109181508"}</t>
-  </si>
-  <si>
-    <t>{"name":"周桂芝","id_card_no":"130803194903061534"}</t>
-  </si>
-  <si>
-    <t>{"name":"江浩","id_card_no":"511301194403071092"}</t>
-  </si>
-  <si>
-    <t>{"name":"卢娟","id_card_no":"350211196905258039"}</t>
-  </si>
-  <si>
-    <t>{"name":"艾娜","id_card_no":"220200197408236724"}</t>
-  </si>
-  <si>
-    <t>{"name":"张秀荣","id_card_no":"540237199612240356"}</t>
-  </si>
-  <si>
-    <t>{"name":"石英","id_card_no":"441625194503105439"}</t>
-  </si>
-  <si>
-    <t>{"name":"李红霞","id_card_no":"210200199506071633"}</t>
-  </si>
-  <si>
-    <t>{"name":"储丹","id_card_no":"532328194502219982"}</t>
-  </si>
-  <si>
-    <t>{"name":"张冬梅","id_card_no":"511400193010316671"}</t>
-  </si>
-  <si>
-    <t>{"name":"胡欣","id_card_no":"53082519971110972X"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘琴","id_card_no":"341321193901184259"}</t>
-  </si>
-  <si>
-    <t>{"name":"柯秀华","id_card_no":"220211194209257405"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘秀云","id_card_no":"350000197502235566"}</t>
-  </si>
-  <si>
-    <t>{"name":"李佳","id_card_no":"360724193711291938"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵秀兰","id_card_no":"140927196607261993"}</t>
-  </si>
-  <si>
-    <t>{"name":"舒波","id_card_no":"21030219840513642X"}</t>
-  </si>
-  <si>
-    <t>{"name":"米丽丽","id_card_no":"513231199607051058"}</t>
-  </si>
-  <si>
-    <t>{"name":"景桂珍","id_card_no":"51342919520912825X"}</t>
+    <t>{"name":"张小红","id_card_no":"61073019830325286X"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨欣","id_card_no":"540226196010235098"}</t>
+  </si>
+  <si>
+    <t>{"name":"董鑫","id_card_no":"450223197311253154"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈秀兰","id_card_no":"430112193410142699"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢成","id_card_no":"511623193006259200"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨云","id_card_no":"420300198503244797"}</t>
+  </si>
+  <si>
+    <t>{"name":"成想","id_card_no":"220103198705255460"}</t>
+  </si>
+  <si>
+    <t>{"name":"李杨","id_card_no":"140108194209016501"}</t>
+  </si>
+  <si>
+    <t>{"name":"王飞","id_card_no":"152526199804113294"}</t>
+  </si>
+  <si>
+    <t>{"name":"毛桂花","id_card_no":"340602196907087433"}</t>
+  </si>
+  <si>
+    <t>{"name":"黄鑫","id_card_no":"440115197707057398"}</t>
+  </si>
+  <si>
+    <t>{"name":"张俊","id_card_no":"410181199109204287"}</t>
+  </si>
+  <si>
+    <t>{"name":"徐彬","id_card_no":"53293219570801057X"}</t>
+  </si>
+  <si>
+    <t>{"name":"徐龙","id_card_no":"371601198903303580"}</t>
+  </si>
+  <si>
+    <t>{"name":"许璐","id_card_no":"320201195205026445"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈荣","id_card_no":"15020419820116709X"}</t>
+  </si>
+  <si>
+    <t>{"name":"孟玲","id_card_no":"451025193706249488"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢玲","id_card_no":"530626197707298034"}</t>
+  </si>
+  <si>
+    <t>{"name":"范飞","id_card_no":"320500194108110413"}</t>
+  </si>
+  <si>
+    <t>{"name":"郑淑珍","id_card_no":"361002194603191066"}</t>
+  </si>
+  <si>
+    <t>{"name":"张帆","id_card_no":"450722198701177156"}</t>
+  </si>
+  <si>
+    <t>{"name":"张秀珍","id_card_no":"230707197804090855"}</t>
+  </si>
+  <si>
+    <t>{"name":"张建平","id_card_no":"54222919330518888X"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘建平","id_card_no":"141032193711050191"}</t>
+  </si>
+  <si>
+    <t>{"name":"李帆","id_card_no":"410882195011157749"}</t>
+  </si>
+  <si>
+    <t>{"name":"任荣","id_card_no":"211202194904094911"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨婷婷","id_card_no":"430725198311150201"}</t>
+  </si>
+  <si>
+    <t>{"name":"丁佳","id_card_no":"410400200107118573"}</t>
+  </si>
+  <si>
+    <t>{"name":"王颖","id_card_no":"370686194805290805"}</t>
+  </si>
+  <si>
+    <t>{"name":"姜建","id_card_no":"620000193112095753"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘华","id_card_no":"654000193706167098"}</t>
+  </si>
+  <si>
+    <t>{"name":"潘秀华","id_card_no":"330600198707262721"}</t>
+  </si>
+  <si>
+    <t>{"name":"毕璐","id_card_no":"511826195311270368"}</t>
+  </si>
+  <si>
+    <t>{"name":"黎秀云","id_card_no":"513434194809168040"}</t>
+  </si>
+  <si>
+    <t>{"name":"张丽华","id_card_no":"510303196911053609"}</t>
+  </si>
+  <si>
+    <t>{"name":"黄桂香","id_card_no":"210601195701028788"}</t>
+  </si>
+  <si>
+    <t>{"name":"戚坤","id_card_no":"440224198702227104"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈文","id_card_no":"341821194310054315"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈凤兰","id_card_no":"13042519491013366X"}</t>
+  </si>
+  <si>
+    <t>{"name":"贾桂香","id_card_no":"500108197811298362"}</t>
   </si>
 </sst>
 </file>
@@ -1730,13 +1733,13 @@
         <v>217</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
         <v>218</v>
       </c>
       <c r="Q2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1777,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1827,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1874,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1924,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1968,13 +1971,13 @@
         <v>217</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" t="s">
         <v>218</v>
       </c>
       <c r="Q7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2018,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2068,10 +2071,10 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2115,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2165,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2215,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2262,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2312,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2359,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2409,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2456,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2506,10 +2509,10 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2553,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2603,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2650,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2700,10 +2703,10 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2747,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2794,13 +2797,13 @@
         <v>217</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
         <v>218</v>
       </c>
       <c r="Q24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2844,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2894,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2941,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2991,10 +2994,10 @@
         <v>2</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3038,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3088,10 +3091,10 @@
         <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3138,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3188,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3238,10 +3241,10 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3288,10 +3291,10 @@
         <v>500</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3335,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3385,10 +3388,10 @@
         <v>252525</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3432,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3482,10 +3485,10 @@
         <v>3000</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3529,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3579,10 +3582,10 @@
         <v>50000</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3626,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/output/一级测试用例-f0001_result.xlsx
+++ b/tests/data/output/一级测试用例-f0001_result.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"胥欢","id_card_no":"632324193202104538"}</t>
+          <t>{"name":"勾杰","id_card_no":"32020519720730698X"}</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"甘敏","id_card_no":"511025198005064797"}</t>
+          <t>{"name":"鄂伟","id_card_no":"410303199102120779"}</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"陆龙","id_card_no":"411525195408162172"}</t>
+          <t>{"name":"董建华","id_card_no":"330110197412108891"}</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"司平","id_card_no":"420984198101061090"}</t>
+          <t>{"name":"宗丽华","id_card_no":"411381195001162015"}</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"蒲丽丽","id_card_no":"33110019421206880X"}</t>
+          <t>{"name":"寇柳","id_card_no":"520601198307299025"}</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"凌想","id_card_no":"150500198109202033"}</t>
+          <t>{"name":"许丹丹","id_card_no":"360203196908262190"}</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"缪霞","id_card_no":"230700194603240150"}</t>
+          <t>{"name":"粱雷","id_card_no":"532626195109076928"}</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"雕建华","id_card_no":"530321197012048727"}</t>
+          <t>{"name":"阙凯","id_card_no":"110113193109160478"}</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"邱雪梅","id_card_no":"522728196004277951"}</t>
+          <t>{"name":"凤凯","id_card_no":"610103195712145429"}</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"毛玉兰","id_card_no":"620924194812237868"}</t>
+          <t>{"name":"焦静","id_card_no":"140603196408034803"}</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"羊鑫","id_card_no":"511025196808315327"}</t>
+          <t>{"name":"谢婷","id_card_no":"540226196403044030"}</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"关云","id_card_no":"340823198901107861"}</t>
+          <t>{"name":"权建华","id_card_no":"433126199703295435"}</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"周丽华","id_card_no":"23080419870425485X"}</t>
+          <t>{"name":"屠静","id_card_no":"610601198209088891"}</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"苍瑜","id_card_no":"230704197106026590"}</t>
+          <t>{"name":"陶婷","id_card_no":"210282193209033857"}</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"顾丽华","id_card_no":"451227194108071462"}</t>
+          <t>{"name":"侯玉梅","id_card_no":"230407193305207890"}</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"年彬","id_card_no":"420381193008048559"}</t>
+          <t>{"name":"艾颖","id_card_no":"410501196311155753"}</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"盖玉珍","id_card_no":"370126196505177769"}</t>
+          <t>{"name":"岑倩","id_card_no":"510703198205164302"}</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"施建军","id_card_no":"222406199011147969"}</t>
+          <t>{"name":"甫旭","id_card_no":"150627193909224719"}</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>{"name":"公秀云","id_card_no":"610628197011291064"}</t>
+          <t>{"name":"宗杨","id_card_no":"15052419980711292X"}</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>{"name":"单洋","id_card_no":"330381199109209070"}</t>
+          <t>{"name":"贺红梅","id_card_no":"650201199908291610"}</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>{"name":"衡梅","id_card_no":"630102195908128791"}</t>
+          <t>{"name":"晋桂荣","id_card_no":"511101194511139022"}</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>{"name":"阚平","id_card_no":"421321195311262033"}</t>
+          <t>{"name":"颜丹丹","id_card_no":"231121199710046399"}</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='**金融借款合同纠纷**';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
+          <t xml:space="preserve">info_court_judicative_pape.court_id; info_court_judicative_pape.case_reason[1-0]='金融借款合同纠纷';                info_court_judicative_pape.legal_status[1-0]='**被告**' </t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2413,16 +2413,16 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>{"name":"爱丽华","id_card_no":"45032319720718481X"}</t>
+          <t>{"name":"鲁桂花","id_card_no":"370212194312208299"}</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>{"name":"樊桂芝","id_card_no":"371401198405215632"}</t>
+          <t>{"name":"邓莹","id_card_no":"371301194803305808"}</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>{"name":"厍梅","id_card_no":"652324197706261088"}</t>
+          <t>{"name":"农云","id_card_no":"15090119450120288X"}</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>{"name":"易凯","id_card_no":"140300197311206188"}</t>
+          <t>{"name":"邹秀荣","id_card_no":"513231199106166893"}</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>{"name":"阚健","id_card_no":"130204194103209856"}</t>
+          <t>{"name":"督海燕","id_card_no":"640323195201114606"}</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>info_court_judicative_pape.court_id; info_court_judicative_pape.legal_status[0-0]='';                 info_court_judicative_pape.legal_status[0-1]='';   info_court_judicative_pape.legal_status[1-0]='';                 info_court_judicative_pape.legal_status[1-1]=''</t>
+          <t>info_court_judicative_pape.court_id; info_court_judicative_pape.legal_status[0-0]=;                 info_court_judicative_pape.legal_status[0-1]=;   info_court_judicative_pape.legal_status[1-0]=;                 info_court_judicative_pape.legal_status[1-1]=</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2845,16 +2845,16 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>{"name":"台文","id_card_no":"150928199901188522"}</t>
+          <t>{"name":"利梅","id_card_no":"420106197201026527"}</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>{"name":"蒙平","id_card_no":"510401193406097124"}</t>
+          <t>{"name":"凌想","id_card_no":"659000196405166938"}</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>{"name":"谯燕","id_card_no":"421200196912164540"}</t>
+          <t>{"name":"楚浩","id_card_no":"231102194811228122"}</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>{"name":"关龙","id_card_no":"360313196304055252"}</t>
+          <t>{"name":"喻平","id_card_no":"45112119780505908X"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>{"name":"暴平","id_card_no":"141124195404090542"}</t>
+          <t>{"name":"干秀珍","id_card_no":"130426194506041321"}</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>{"name":"濮婷婷","id_card_no":"36098320000916529X"}</t>
+          <t>{"name":"俟玲","id_card_no":"433126199911079753"}</t>
         </is>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>{"name":"武小红","id_card_no":"513434199306023221"}</t>
+          <t>{"name":"通宁","id_card_no":"441283197704253011"}</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>{"name":"淳利","id_card_no":"420526197712205217"}</t>
+          <t>{"name":"曹梅","id_card_no":"460106198010165796"}</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>{"name":"项丽丽","id_card_no":"140181197004133887"}</t>
+          <t>{"name":"马金凤","id_card_no":"141027196302214020"}</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>{"name":"林梅","id_card_no":"510402197605035262"}</t>
+          <t>{"name":"管强","id_card_no":"360983200003255315"}</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>{"name":"雍婷婷","id_card_no":"653221193705140194"}</t>
+          <t>{"name":"阚成","id_card_no":"530402196911039930"}</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>{"name":"侯丹","id_card_no":"520221194803273102"}</t>
+          <t>{"name":"井玉华","id_card_no":"371603195407091039"}</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>{"name":"聂桂英","id_card_no":"451028193105270483"}</t>
+          <t>{"name":"端文","id_card_no":"530113197401205473"}</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.legal_status[0-0]='';                 info_court_trial_process.legal_status[0-1]='';                  info_court_trial_process.legal_status[1-0]='';                 info_court_trial_process.legal_status[1-1]='' </t>
+          <t>info_court_trial_process.court_id; info_court_trial_process.legal_status[0-0]=;                 info_court_trial_process.legal_status[0-1]=;                  info_court_trial_process.legal_status[1-0]=;                 info_court_trial_process.legal_status[1-1]=</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>{"name":"赵志强","id_card_no":"330824193507229053"}</t>
+          <t>{"name":"慎玉兰","id_card_no":"611000197910235471"}</t>
         </is>
       </c>
     </row>
